--- a/biology/Écologie/Écologie_globale/Écologie_globale.xlsx
+++ b/biology/Écologie/Écologie_globale/Écologie_globale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cologie_globale</t>
+          <t>Écologie_globale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écologie globale[1],[2],[3] étudie l'écologie à l'échelle de l'écosphère ou de la biosphère (totalité des milieux occupés par des êtres vivants).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écologie globale étudie l'écologie à l'échelle de l'écosphère ou de la biosphère (totalité des milieux occupés par des êtres vivants).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cologie_globale</t>
+          <t>Écologie_globale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Robert Barbault[4], le père de l'écologie globale (au sens d'écologie de la planète) est le géochimiste Wladimir Verdnasky (1863-1945) avec son ouvrage La biosphère publié en 1926 en russe et en 1929 en français.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Robert Barbault, le père de l'écologie globale (au sens d'écologie de la planète) est le géochimiste Wladimir Verdnasky (1863-1945) avec son ouvrage La biosphère publié en 1926 en russe et en 1929 en français.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cologie_globale</t>
+          <t>Écologie_globale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette science est très complexe car il est souvent considéré comme extrêmement difficile de mettre en évidence les relations existant à l'intérieur d'un écocomplexe.
 Au niveau global, on peut toutefois étudier divers paramètres :
